--- a/7/1/1/4/2/Series originales 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/4/2/Series originales 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t>Serie</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8429,79 +8432,159 @@
         <v>124</v>
       </c>
       <c r="B102">
-        <v>39238</v>
+        <v>39368</v>
       </c>
       <c r="C102">
-        <v>29558</v>
+        <v>29624</v>
       </c>
       <c r="D102">
-        <v>25254</v>
+        <v>25311</v>
       </c>
       <c r="E102">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="F102">
-        <v>10883</v>
+        <v>10877</v>
       </c>
       <c r="G102">
-        <v>11537</v>
+        <v>11599</v>
       </c>
       <c r="H102">
-        <v>4477</v>
+        <v>4486</v>
       </c>
       <c r="I102">
-        <v>7753</v>
+        <v>7787</v>
       </c>
       <c r="J102">
-        <v>4633</v>
+        <v>4641</v>
       </c>
       <c r="K102">
-        <v>3088</v>
+        <v>3112</v>
       </c>
       <c r="L102">
-        <v>10976</v>
+        <v>10937</v>
       </c>
       <c r="M102">
-        <v>10083</v>
+        <v>10058</v>
       </c>
       <c r="N102">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="O102">
-        <v>4879</v>
+        <v>4869</v>
       </c>
       <c r="P102">
-        <v>4444</v>
+        <v>4433</v>
       </c>
       <c r="Q102">
         <v>431</v>
       </c>
       <c r="R102">
-        <v>3404</v>
+        <v>3392</v>
       </c>
       <c r="S102">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="T102">
-        <v>12243</v>
+        <v>12265</v>
       </c>
       <c r="U102">
-        <v>11370</v>
+        <v>11356</v>
       </c>
       <c r="V102">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="W102">
-        <v>1344</v>
+        <v>1308</v>
       </c>
       <c r="X102">
-        <v>9747</v>
+        <v>9752</v>
       </c>
       <c r="Y102">
-        <v>967</v>
+        <v>998</v>
       </c>
       <c r="Z102">
-        <v>38012</v>
+        <v>38076</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103">
+        <v>41667</v>
+      </c>
+      <c r="C103">
+        <v>32833</v>
+      </c>
+      <c r="D103">
+        <v>26556</v>
+      </c>
+      <c r="E103">
+        <v>3547</v>
+      </c>
+      <c r="F103">
+        <v>10878</v>
+      </c>
+      <c r="G103">
+        <v>12230</v>
+      </c>
+      <c r="H103">
+        <v>6197</v>
+      </c>
+      <c r="I103">
+        <v>8218</v>
+      </c>
+      <c r="J103">
+        <v>4998</v>
+      </c>
+      <c r="K103">
+        <v>3193</v>
+      </c>
+      <c r="L103">
+        <v>10700</v>
+      </c>
+      <c r="M103">
+        <v>9811</v>
+      </c>
+      <c r="N103">
+        <v>762</v>
+      </c>
+      <c r="O103">
+        <v>5401</v>
+      </c>
+      <c r="P103">
+        <v>4898</v>
+      </c>
+      <c r="Q103">
+        <v>499</v>
+      </c>
+      <c r="R103">
+        <v>3588</v>
+      </c>
+      <c r="S103">
+        <v>866</v>
+      </c>
+      <c r="T103">
+        <v>12671</v>
+      </c>
+      <c r="U103">
+        <v>11804</v>
+      </c>
+      <c r="V103">
+        <v>271</v>
+      </c>
+      <c r="W103">
+        <v>1368</v>
+      </c>
+      <c r="X103">
+        <v>10124</v>
+      </c>
+      <c r="Y103">
+        <v>970</v>
+      </c>
+      <c r="Z103">
+        <v>39677</v>
       </c>
     </row>
   </sheetData>
